--- a/data/chemicals/chemvar.xlsx
+++ b/data/chemicals/chemvar.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/chemicals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F8582B-980A-CC4F-B03B-B08892FCE482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560641F-52C2-F641-B2A7-FDB0C754BDFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="3700" windowWidth="27360" windowHeight="16440" activeTab="1" xr2:uid="{1483755D-88C4-4C40-84D3-8DC236B12E83}"/>
+    <workbookView xWindow="5420" yWindow="460" windowWidth="23060" windowHeight="21120" activeTab="1" xr2:uid="{1483755D-88C4-4C40-84D3-8DC236B12E83}"/>
   </bookViews>
   <sheets>
     <sheet name="eth-box" sheetId="1" r:id="rId1"/>
     <sheet name="eth-stoich" sheetId="2" r:id="rId2"/>
-    <sheet name="Ref" sheetId="3" r:id="rId3"/>
+    <sheet name="NH3-box" sheetId="4" r:id="rId3"/>
+    <sheet name="Ref" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="title11">[1]Title!$F$18</definedName>
@@ -26,7 +27,7 @@
     <definedName name="title116">[1]Title!$F$123</definedName>
     <definedName name="title9">[1]Title!$F$16</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,6 +50,315 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{5ABA4161-9316-6B4E-A7BA-E5EEC9D8E723}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>96% methane (2.5 ethane, 1.5% N2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C6921B58-30CC-BE47-9D44-A721A37A3E2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">89.1% CO2 stream.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{70659D19-2B4F-F841-948E-7FB7AEC927E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>45% MDEA, 5% Piperazine, 50% water</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0F7D9DF2-EDDA-A344-92E5-8D7C57EBB883}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>71.25% H2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{EE092259-D343-674B-8EE8-F25F5EE78CAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>96% methane (2.5 ethane, 1.5% N2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{7EF533EE-8698-564A-8B88-D6D740A6A5D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">89.1% CO2 stream.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{586B68EA-C059-7A4B-A89E-2FF67F557F6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>45% MDEA, 5% Piperazine, 50% water</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{8BB425A9-9B9A-A54B-BADA-4A0898C54FA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>71.25% H2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{EE8D6430-E765-C94E-9B97-DBE12234AFBA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>29.0986 is a value adjustment for the removal of the carriers (non CO2 of CO2 stream, non-MDEA of MDEA stream, non CH4 of CH4 stream)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{7A33C265-16ED-3841-9586-7F9AB745AAFA}">
       <text>
         <r>
@@ -87,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>scenario</t>
   </si>
@@ -261,6 +571,60 @@
   </si>
   <si>
     <t>FAO Transport Tool Conversions</t>
+  </si>
+  <si>
+    <t>Ammonia Prod</t>
+  </si>
+  <si>
+    <t>CO2 Prod</t>
+  </si>
+  <si>
+    <t>Steam Demand</t>
+  </si>
+  <si>
+    <t>Air Demand</t>
+  </si>
+  <si>
+    <t>MDEA demand</t>
+  </si>
+  <si>
+    <t>Purge Prod</t>
+  </si>
+  <si>
+    <t>Bottoms Prod</t>
+  </si>
+  <si>
+    <t>Electricity Demand</t>
+  </si>
+  <si>
+    <t>t NH3 / t CH4</t>
+  </si>
+  <si>
+    <t>t CO2 / t CH4</t>
+  </si>
+  <si>
+    <t>t steam / t NH3</t>
+  </si>
+  <si>
+    <t>t Air / t NH3</t>
+  </si>
+  <si>
+    <t>t MDEA / t CO2</t>
+  </si>
+  <si>
+    <t>t Purge / t NH3</t>
+  </si>
+  <si>
+    <t>t Bottoms / t NH3</t>
+  </si>
+  <si>
+    <t>GJ Electricity / t NH3</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Akash-Pure</t>
   </si>
 </sst>
 </file>
@@ -269,11 +633,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -457,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -472,22 +836,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,9 +885,9 @@
       <sheetName val="STORAGE_FS2"/>
       <sheetName val="STORAGE_FS3"/>
       <sheetName val="STORAGE_FS4"/>
-      <sheetName val="Data Entry Needs"/>
       <sheetName val="Process Description"/>
       <sheetName val="Label"/>
+      <sheetName val="Data Entry Needs"/>
       <sheetName val="Allocator"/>
       <sheetName val="BAL_BIOD"/>
       <sheetName val="BAL_ETOH1"/>
@@ -989,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78E8D49-AD91-2B4F-BAAA-A7F2224101D6}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,7 +1510,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1646,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5949CD9F-738E-1D41-9708-1FD872D25F11}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <f>619.4/318.2</f>
+        <v>1.9465744814582024</v>
+      </c>
+      <c r="C4">
+        <f>761.6/318.2</f>
+        <v>2.3934632306725332</v>
+      </c>
+      <c r="D4">
+        <f>(1037.7+2334.8)/619.4</f>
+        <v>5.4447852760736195</v>
+      </c>
+      <c r="E4">
+        <f>832.7/619.4</f>
+        <v>1.3443655150145304</v>
+      </c>
+      <c r="F4">
+        <f>180.7/761.6</f>
+        <v>0.23726365546218486</v>
+      </c>
+      <c r="G4">
+        <f>77.4/619.4</f>
+        <v>0.12495963835970295</v>
+      </c>
+      <c r="H4">
+        <f>(4.4+587.1+61.8+2592.4)/619.4</f>
+        <v>5.2400710364869223</v>
+      </c>
+      <c r="I4">
+        <f>1185.6/619.4</f>
+        <v>1.9141104294478526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <f>619.4/(318.2*0.96)</f>
+        <v>2.0276817515189607</v>
+      </c>
+      <c r="C5">
+        <f>(761.6*0.891)/(318.2*0.96)</f>
+        <v>2.2214330609679447</v>
+      </c>
+      <c r="D5">
+        <f>(1037.7+2334.8)/619.4</f>
+        <v>5.4447852760736195</v>
+      </c>
+      <c r="E5">
+        <f>832.7/619.4</f>
+        <v>1.3443655150145304</v>
+      </c>
+      <c r="F5">
+        <f>(180.7*0.45)/(761.6*0.891)</f>
+        <v>0.11983012902130549</v>
+      </c>
+      <c r="G5">
+        <f>77.4/619.4</f>
+        <v>0.12495963835970295</v>
+      </c>
+      <c r="H5">
+        <f>(4.4+587.1+61.8+2592.4-29.0986)/619.4</f>
+        <v>5.1930923474329997</v>
+      </c>
+      <c r="I5">
+        <f>1185.6/619.4</f>
+        <v>1.9141104294478526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9666CF-B3B3-4F49-BF5B-441994A8CE57}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -1300,7 +1825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1423,7 +1948,7 @@
         <v>0.73721999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -1435,7 +1960,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -1448,7 +1973,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1985,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -1472,30 +1997,30 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="16"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +2029,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +2041,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +2051,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +2061,7 @@
       </c>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
